--- a/BOOK FOR IICS.xlsx
+++ b/BOOK FOR IICS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumu.venkateswara\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumu.venkateswara\Desktop\IICS-CAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B617795C-EEBD-4BD5-B055-09BB7D5DF710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F753913-4A12-413B-8EBA-6227B04E9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="5" xr2:uid="{85E2E893-473E-421B-ACDC-4163DBA11B3B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="5" activeTab="6" xr2:uid="{85E2E893-473E-421B-ACDC-4163DBA11B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Difference betwwen SC &amp; AC" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Limitations forMI,DT,ST,RT" sheetId="3" r:id="rId3"/>
     <sheet name="Limitations" sheetId="4" r:id="rId4"/>
     <sheet name="Diff bw Process &amp; Processobject" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Limit Process &amp; Process Object" sheetId="6" r:id="rId6"/>
+    <sheet name="Diff DataMasking &amp; MaskingTask" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
   <si>
     <t>Feature</t>
   </si>
@@ -443,6 +444,60 @@
   </si>
   <si>
     <t>Lack of detailed logging for object changes can make it difficult to track data modifications and provenance.</t>
+  </si>
+  <si>
+    <t>Data Masking Transformation</t>
+  </si>
+  <si>
+    <t>Masking Task</t>
+  </si>
+  <si>
+    <t>Anonymize data within individual mappings</t>
+  </si>
+  <si>
+    <t>Anonymize entire datasets</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Integrated within mapping flow</t>
+  </si>
+  <si>
+    <t>Separate task scheduled within CDI</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Granular, field-level masking rules</t>
+  </si>
+  <si>
+    <t>Uniform masking based on defined rules</t>
+  </si>
+  <si>
+    <t>Limited to data within mapping</t>
+  </si>
+  <si>
+    <t>Applicable to any data source in CDI</t>
+  </si>
+  <si>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <t>Runs only with the relevant mapping</t>
+  </si>
+  <si>
+    <t>Scheduled independently</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>Specific data anonymization needs within mappings</t>
+  </si>
+  <si>
+    <t>Large-scale data anonymization for specific data sources</t>
   </si>
 </sst>
 </file>
@@ -505,7 +560,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +607,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -603,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -680,6 +741,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1560,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C743197E-6C72-481A-9D37-4178BD016DE5}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+    <sheetView zoomScale="105" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1673,4 +1737,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF15F66-4DCA-4B97-95C2-30FCD182DDB0}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/BOOK FOR IICS.xlsx
+++ b/BOOK FOR IICS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumu.venkateswara\Desktop\IICS-CAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F753913-4A12-413B-8EBA-6227B04E9861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38056BC-6C82-45BB-A74B-3A0171799CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="5" activeTab="6" xr2:uid="{85E2E893-473E-421B-ACDC-4163DBA11B3B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="7" activeTab="10" xr2:uid="{85E2E893-473E-421B-ACDC-4163DBA11B3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Difference betwwen SC &amp; AC" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="Diff bw Process &amp; Processobject" sheetId="5" r:id="rId5"/>
     <sheet name="Limit Process &amp; Process Object" sheetId="6" r:id="rId6"/>
     <sheet name="Diff DataMasking &amp; MaskingTask" sheetId="7" r:id="rId7"/>
+    <sheet name="Diff SourceQualifier&amp;FilterTrns" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Cache" sheetId="10" r:id="rId10"/>
+    <sheet name="type of lookup cache" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="246">
   <si>
     <t>Feature</t>
   </si>
@@ -498,6 +502,288 @@
   </si>
   <si>
     <t>Large-scale data anonymization for specific data sources</t>
+  </si>
+  <si>
+    <t>Source Qualifier</t>
+  </si>
+  <si>
+    <t>Filter Transformation</t>
+  </si>
+  <si>
+    <t>Filter data at the source (database or file)</t>
+  </si>
+  <si>
+    <t>Filter data within a mapping (after reading)</t>
+  </si>
+  <si>
+    <t>Source Type</t>
+  </si>
+  <si>
+    <t>Works with relational databases and flat files</t>
+  </si>
+  <si>
+    <t>Works with any data source within a mapping</t>
+  </si>
+  <si>
+    <t>Filter Expressions</t>
+  </si>
+  <si>
+    <t>Supports complex expressions and database functions</t>
+  </si>
+  <si>
+    <t>Supports similar expressions, but limited by data type conversions</t>
+  </si>
+  <si>
+    <t>Can offload filtering to source database, improving performance</t>
+  </si>
+  <si>
+    <t>Less efficient as it processes data after reading</t>
+  </si>
+  <si>
+    <t>Data Modification</t>
+  </si>
+  <si>
+    <t>Can't modify data, only filter it</t>
+  </si>
+  <si>
+    <t>Can modify data through expressions and calculations</t>
+  </si>
+  <si>
+    <t>Default Behavior</t>
+  </si>
+  <si>
+    <t>Includes all rows by default unless filtered</t>
+  </si>
+  <si>
+    <t>Excludes rows by default unless meeting the condition</t>
+  </si>
+  <si>
+    <t>Limited to filtering based on source data</t>
+  </si>
+  <si>
+    <t>More flexible and can combine expressions from various sources</t>
+  </si>
+  <si>
+    <t>Application Scenarios</t>
+  </si>
+  <si>
+    <t>Reduce data volume before it enters the mapping</t>
+  </si>
+  <si>
+    <t>Refine data after applying other transformations</t>
+  </si>
+  <si>
+    <t>Router Transformation</t>
+  </si>
+  <si>
+    <t>Number of Conditions</t>
+  </si>
+  <si>
+    <t>Multiple conditions per transformation</t>
+  </si>
+  <si>
+    <t>One condition per transformation</t>
+  </si>
+  <si>
+    <t>Group Handling</t>
+  </si>
+  <si>
+    <t>Data can be divided into multiple groups based on conditions</t>
+  </si>
+  <si>
+    <t>Data can be filtered based on a single condition, no group definition</t>
+  </si>
+  <si>
+    <t>Default Group</t>
+  </si>
+  <si>
+    <t>Includes rows that don't meet any group condition</t>
+  </si>
+  <si>
+    <t>Drops rows that don't meet the condition</t>
+  </si>
+  <si>
+    <t>Data Processing</t>
+  </si>
+  <si>
+    <t>Processes incoming data once, even if it satisfies multiple conditions</t>
+  </si>
+  <si>
+    <t>Processes each row separately for each transformation</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>More efficient for handling multiple conditions on the same data</t>
+  </si>
+  <si>
+    <t>More efficient for simple filtering or non-overlapping conditions</t>
+  </si>
+  <si>
+    <t>Route data to different targets based on specific criteria</t>
+  </si>
+  <si>
+    <t>Exclude unwanted data based on a single condition</t>
+  </si>
+  <si>
+    <t>Split customer data by region for targeted campaigns</t>
+  </si>
+  <si>
+    <t>Filter out erroneous records from a dataset</t>
+  </si>
+  <si>
+    <t>Cache Type</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t>Considerations</t>
+  </si>
+  <si>
+    <t>Lookup Cache</t>
+  </si>
+  <si>
+    <t>Stores key-value pairs from lookup table</t>
+  </si>
+  <si>
+    <t>- Static: Default, fixed throughout mapping&lt;br&gt;- Dynamic: Updates with new keys during mapping</t>
+  </si>
+  <si>
+    <t>- Reduces source access, improves performance</t>
+  </si>
+  <si>
+    <t>- Memory usage (Static vs Dynamic)</t>
+  </si>
+  <si>
+    <t>Aggregator Cache</t>
+  </si>
+  <si>
+    <t>Stores aggregated values for incremental scenarios</t>
+  </si>
+  <si>
+    <t>Used with Lookup in incremental aggregations</t>
+  </si>
+  <si>
+    <t>- Faster retrieval of pre-calculated aggregates</t>
+  </si>
+  <si>
+    <t>- Applicable only in specific scenarios</t>
+  </si>
+  <si>
+    <t>Joiner Cache</t>
+  </si>
+  <si>
+    <t>Caches intermediate join results for 1:n joins</t>
+  </si>
+  <si>
+    <t>Used with Lookup in 1:n joins</t>
+  </si>
+  <si>
+    <t>- Faster join lookups for repeated keys</t>
+  </si>
+  <si>
+    <t>- Memory usage and complexity for complex joins</t>
+  </si>
+  <si>
+    <t>Shared Cache</t>
+  </si>
+  <si>
+    <t>Shared across multiple transformations</t>
+  </si>
+  <si>
+    <t>- Named: Explicitly named, shared across mappings&lt;br&gt;- Unnamed: Automatic sharing within mapping</t>
+  </si>
+  <si>
+    <t>- Efficient resource utilization</t>
+  </si>
+  <si>
+    <t>- Potential conflicts and management overhead</t>
+  </si>
+  <si>
+    <t>Unshared Cache</t>
+  </si>
+  <si>
+    <t>Dedicated to a single transformation</t>
+  </si>
+  <si>
+    <t>- Simple and isolated</t>
+  </si>
+  <si>
+    <t>- Higher memory consumption per transformation</t>
+  </si>
+  <si>
+    <t>Session Caches</t>
+  </si>
+  <si>
+    <t>Used by other transformations (Sorter, XML Target)</t>
+  </si>
+  <si>
+    <t>Specific to each transformation</t>
+  </si>
+  <si>
+    <t>- Improve performance within transformation</t>
+  </si>
+  <si>
+    <t>- Varying impact depending on specific cache</t>
+  </si>
+  <si>
+    <t>Dynamic Lookup Cache</t>
+  </si>
+  <si>
+    <t>Static Lookup Cache</t>
+  </si>
+  <si>
+    <t>Data Update</t>
+  </si>
+  <si>
+    <t>Updates the cache with new keys and values encountered during the mapping run</t>
+  </si>
+  <si>
+    <t>Remains static throughout the mapping run, only reflecting data from the initial load</t>
+  </si>
+  <si>
+    <t>Generally slower as it needs to access the source and update the cache on the fly</t>
+  </si>
+  <si>
+    <t>Generally faster as it avoids repeated source access</t>
+  </si>
+  <si>
+    <t>Memory Usage</t>
+  </si>
+  <si>
+    <t>May require more memory as it grows with new data during the mapping</t>
+  </si>
+  <si>
+    <t>Requires less memory as the size remains fixed</t>
+  </si>
+  <si>
+    <t>Data Consistency</t>
+  </si>
+  <si>
+    <t>Reflects the latest data from the source at any point during the mapping</t>
+  </si>
+  <si>
+    <t>May not reflect the latest changes if they occur after the initial cache load</t>
+  </si>
+  <si>
+    <t>Recommended Use Cases</t>
+  </si>
+  <si>
+    <t>When the lookup table changes frequently or new keys appear during the mapping</t>
+  </si>
+  <si>
+    <t>When the lookup table is stable and performance is critical</t>
+  </si>
+  <si>
+    <t>Configuration Options</t>
+  </si>
+  <si>
+    <t>Can be enabled/disabled, refresh interval can be set</t>
+  </si>
+  <si>
+    <t>No configuration options after initial load</t>
   </si>
 </sst>
 </file>
@@ -664,7 +950,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -743,6 +1029,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1172,6 +1468,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FFAFB-A227-477B-8DAF-2376DA4E3B3F}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFF5012-8D1D-460B-9BE5-AD82FA458DB8}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" customWidth="1"/>
+    <col min="4" max="4" width="40.08984375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D1CA6-2613-45F1-92DB-7B3F37CE876D}">
   <dimension ref="A1:F8"/>
@@ -1743,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF15F66-4DCA-4B97-95C2-30FCD182DDB0}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1835,4 +2401,237 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597E296-5417-4964-B056-EAE3D84191B6}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA669D5-F612-4951-BE0E-D61A5EF0612F}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.08984375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="55.26953125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="61" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="38.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="31"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>